--- a/Data/AirQuality/BreatheLondon2/coords_breathelondon.xlsx
+++ b/Data/AirQuality/BreatheLondon2/coords_breathelondon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/ucfnxch_ucl_ac_uk/Documents/Xiaoyi_dissertation/Analysis/Data/AirQuality/BreatheLondon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/ucfnxch_ucl_ac_uk/Documents/Xiaoyi_dissertation/Analysis/Data/AirQuality/BreatheLondon2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="433" documentId="11_7677FDD1F31CBB258C1D50C67541ED9BADC72F9E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA11AFC0-4F7A-4AF2-8141-9A44007E7D29}"/>
+  <xr:revisionPtr revIDLastSave="435" documentId="11_7677FDD1F31CBB258C1D50C67541ED9BADC72F9E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BCDF721-3AFC-419B-B5DC-148613CC8793}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="13897" windowHeight="8962" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6645" yWindow="1485" windowWidth="16185" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -843,17 +843,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1183,17 +1183,17 @@
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="24.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="15">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>71</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>72</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>73</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>77</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>88</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>89</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>104</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>90</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>92</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>94</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>95</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>96</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>97</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>99</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>100</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>101</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>118</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>119</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>120</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>121</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>122</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>128</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>129</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>130</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>131</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>132</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>133</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
         <v>134</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
         <v>143</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
         <v>144</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
         <v>145</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
         <v>146</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
         <v>147</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
         <v>148</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
         <v>149</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
         <v>150</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
         <v>151</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
         <v>152</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
         <v>153</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
         <v>154</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
         <v>155</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
         <v>170</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
         <v>171</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
         <v>172</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>173</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
         <v>174</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="14.25">
       <c r="A84" s="1" t="s">
         <v>175</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="14.25">
       <c r="A85" s="1" t="s">
         <v>176</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="14.25">
       <c r="A86" s="1" t="s">
         <v>177</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="14.25">
       <c r="A87" s="1" t="s">
         <v>178</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="14.25">
       <c r="A88" s="1" t="s">
         <v>179</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="14.25">
       <c r="A89" s="1" t="s">
         <v>180</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="14.25">
       <c r="A90" s="1" t="s">
         <v>181</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="14.25">
       <c r="A91" s="1" t="s">
         <v>182</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="14.25">
       <c r="A92" s="1" t="s">
         <v>183</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="14.25">
       <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="14.25">
       <c r="A94" s="1" t="s">
         <v>185</v>
       </c>
@@ -2840,7 +2840,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2854,7 +2854,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
